--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.2037016435147</v>
+        <v>793.185303152811</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.8874542010836</v>
+        <v>1085.271124639579</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.318546291408</v>
+        <v>981.6943716915671</v>
       </c>
       <c r="AD2" t="n">
-        <v>724203.7016435147</v>
+        <v>793185.303152811</v>
       </c>
       <c r="AE2" t="n">
-        <v>990887.4542010836</v>
+        <v>1085271.124639579</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.039318412097899e-06</v>
+        <v>2.940012783982549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>896318.546291408</v>
+        <v>981694.3716915671</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.7745627493593</v>
+        <v>306.2227825852727</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.8539466011821</v>
+        <v>418.9875207288794</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.3647278378563</v>
+        <v>378.9999398031931</v>
       </c>
       <c r="AD3" t="n">
-        <v>271774.5627493593</v>
+        <v>306222.7825852727</v>
       </c>
       <c r="AE3" t="n">
-        <v>371853.9466011821</v>
+        <v>418987.5207288794</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758566390248964e-06</v>
+        <v>5.418591413300406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.085416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>336364.7278378563</v>
+        <v>378999.939803193</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.891623344176</v>
+        <v>245.7918162391772</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.8654199931263</v>
+        <v>336.3032065479164</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.1512465763403</v>
+        <v>304.2069005195983</v>
       </c>
       <c r="AD4" t="n">
-        <v>219891.623344176</v>
+        <v>245791.8162391772</v>
       </c>
       <c r="AE4" t="n">
-        <v>300865.4199931263</v>
+        <v>336303.2065479165</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.298192887591416e-06</v>
+        <v>6.196551731488506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.070833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>272151.2465763403</v>
+        <v>304206.9005195983</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.1955189188492</v>
+        <v>210.0103709592788</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.0244351174354</v>
+        <v>287.3454545500279</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.9715767484169</v>
+        <v>259.9216076597361</v>
       </c>
       <c r="AD5" t="n">
-        <v>184195.5189188492</v>
+        <v>210010.3709592788</v>
       </c>
       <c r="AE5" t="n">
-        <v>252024.4351174354</v>
+        <v>287345.4545500278</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.696749143536152e-06</v>
+        <v>6.771136102748276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.470833333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>227971.5767484169</v>
+        <v>259921.6076597362</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.7710274247706</v>
+        <v>199.5858794652002</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.7611859591372</v>
+        <v>273.0822053917298</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.0695920711863</v>
+        <v>247.0196229825056</v>
       </c>
       <c r="AD6" t="n">
-        <v>173771.0274247706</v>
+        <v>199585.8794652002</v>
       </c>
       <c r="AE6" t="n">
-        <v>237761.1859591372</v>
+        <v>273082.2053917298</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830962816841114e-06</v>
+        <v>6.964627179453616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.291666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>215069.5920711863</v>
+        <v>247019.6229825056</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.7160075869992</v>
+        <v>192.5308596274288</v>
       </c>
       <c r="AB7" t="n">
-        <v>228.1081965715946</v>
+        <v>263.4292160041872</v>
       </c>
       <c r="AC7" t="n">
-        <v>206.337870442732</v>
+        <v>238.2879013540513</v>
       </c>
       <c r="AD7" t="n">
-        <v>166716.0075869992</v>
+        <v>192530.8596274288</v>
       </c>
       <c r="AE7" t="n">
-        <v>228108.1965715946</v>
+        <v>263429.2160041872</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.942856172737751e-06</v>
+        <v>7.125939848837307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.147916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>206337.870442732</v>
+        <v>238287.9013540513</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.9560544428801</v>
+        <v>500.4605957728982</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.649724348882</v>
+        <v>684.7522658997249</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.8929787268391</v>
+        <v>619.4004706980955</v>
       </c>
       <c r="AD2" t="n">
-        <v>449956.0544428801</v>
+        <v>500460.5957728982</v>
       </c>
       <c r="AE2" t="n">
-        <v>615649.7243488821</v>
+        <v>684752.2658997249</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689614244734647e-06</v>
+        <v>3.937494073820028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.68958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>556892.9787268392</v>
+        <v>619400.4706980955</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.2706155032151</v>
+        <v>245.7697175226346</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.4380208499918</v>
+        <v>336.2729701090163</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.7190237724765</v>
+        <v>304.1795498039896</v>
       </c>
       <c r="AD3" t="n">
-        <v>212270.6155032151</v>
+        <v>245769.7175226346</v>
       </c>
       <c r="AE3" t="n">
-        <v>290438.0208499918</v>
+        <v>336272.9701090163</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.29143029195794e-06</v>
+        <v>6.282492508312552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.327083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>262719.0237724765</v>
+        <v>304179.5498039896</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.9615565394121</v>
+        <v>197.2991680589925</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.2853880655696</v>
+        <v>269.9534259631707</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.8300808537757</v>
+        <v>244.1894498713377</v>
       </c>
       <c r="AD4" t="n">
-        <v>171961.5565394121</v>
+        <v>197299.1680589925</v>
       </c>
       <c r="AE4" t="n">
-        <v>235285.3880655696</v>
+        <v>269953.4259631707</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.811032011440679e-06</v>
+        <v>7.04316987876269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.535416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>212830.0808537757</v>
+        <v>244189.4498713377</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.0569659577576</v>
+        <v>181.2239852767458</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.5240255707451</v>
+        <v>247.9586516934994</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.1455922531863</v>
+        <v>224.2938259880972</v>
       </c>
       <c r="AD5" t="n">
-        <v>156056.9659577576</v>
+        <v>181223.9852767458</v>
       </c>
       <c r="AE5" t="n">
-        <v>213524.0255707451</v>
+        <v>247958.6516934994</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.078906845039827e-06</v>
+        <v>7.435328557981103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.189583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>193145.5922531863</v>
+        <v>224293.8259880972</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.9168137372869</v>
+        <v>182.083833056275</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.7005072365032</v>
+        <v>249.1351333592575</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.2097921599672</v>
+        <v>225.3580258948782</v>
       </c>
       <c r="AD6" t="n">
-        <v>156916.8137372869</v>
+        <v>182083.833056275</v>
       </c>
       <c r="AE6" t="n">
-        <v>214700.5072365032</v>
+        <v>249135.1333592575</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.068191851695861e-06</v>
+        <v>7.419642210812365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.204166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194209.7921599672</v>
+        <v>225358.0258948781</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.9658271522852</v>
+        <v>190.864389888652</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.8723019038803</v>
+        <v>261.1490785881378</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.9834365994418</v>
+        <v>236.2253770527959</v>
       </c>
       <c r="AD2" t="n">
-        <v>159965.8271522852</v>
+        <v>190864.389888652</v>
       </c>
       <c r="AE2" t="n">
-        <v>218872.3019038803</v>
+        <v>261149.0785881378</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.797367819554252e-06</v>
+        <v>7.422120169945087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>197983.4365994418</v>
+        <v>236225.377052796</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.8582190289345</v>
+        <v>165.8420331113218</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.518964800034</v>
+        <v>226.9123861369408</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.9087337735642</v>
+        <v>205.2561864776306</v>
       </c>
       <c r="AD3" t="n">
-        <v>134858.2190289345</v>
+        <v>165842.0331113218</v>
       </c>
       <c r="AE3" t="n">
-        <v>184518.964800034</v>
+        <v>226912.3861369408</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.221061214457316e-06</v>
+        <v>8.077626149570958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>166908.7337735642</v>
+        <v>205256.1864776306</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.7136366340321</v>
+        <v>263.8848395355849</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.0408201267164</v>
+        <v>361.0588792300733</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.7828892235023</v>
+        <v>326.599926545674</v>
       </c>
       <c r="AD2" t="n">
-        <v>231713.6366340321</v>
+        <v>263884.8395355849</v>
       </c>
       <c r="AE2" t="n">
-        <v>317040.8201267164</v>
+        <v>361058.8792300732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925102627979119e-06</v>
+        <v>5.931983927170597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.549999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>286782.8892235023</v>
+        <v>326599.926545674</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.8497561680495</v>
+        <v>168.9994935578545</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.189826709273</v>
+        <v>231.2325628172084</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.274867809365</v>
+        <v>209.1640515589409</v>
       </c>
       <c r="AD3" t="n">
-        <v>144849.7561680494</v>
+        <v>168999.4935578545</v>
       </c>
       <c r="AE3" t="n">
-        <v>198189.826709273</v>
+        <v>231232.5628172084</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.135466116897489e-06</v>
+        <v>7.761198967592232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.535416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>179274.867809365</v>
+        <v>209164.0515589409</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.6290905630236</v>
+        <v>165.6082357522365</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.7831699427403</v>
+        <v>226.5924942758288</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.2887761798471</v>
+        <v>204.966824646772</v>
       </c>
       <c r="AD4" t="n">
-        <v>141629.0905630236</v>
+        <v>165608.2357522364</v>
       </c>
       <c r="AE4" t="n">
-        <v>193783.1699427403</v>
+        <v>226592.4942758288</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.225522444636789e-06</v>
+        <v>7.89730055252444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.422916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>175288.7761798471</v>
+        <v>204966.824646772</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8959681687323</v>
+        <v>161.5724925887065</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.0435913060226</v>
+        <v>221.0706124350673</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.9060976796851</v>
+        <v>199.9719434588812</v>
       </c>
       <c r="AD2" t="n">
-        <v>138895.9681687323</v>
+        <v>161572.4925887065</v>
       </c>
       <c r="AE2" t="n">
-        <v>190043.5913060227</v>
+        <v>221070.6124350672</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085659464286253e-06</v>
+        <v>8.037823706276255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.164583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>171906.0976796851</v>
+        <v>199971.9434588812</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.3016881769861</v>
+        <v>161.9782125969604</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.5987153204188</v>
+        <v>221.6257364494634</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.4082414372689</v>
+        <v>200.474087216465</v>
       </c>
       <c r="AD3" t="n">
-        <v>139301.6881769861</v>
+        <v>161978.2125969604</v>
       </c>
       <c r="AE3" t="n">
-        <v>190598.7153204188</v>
+        <v>221625.7364494634</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.098077162269757e-06</v>
+        <v>8.057449728806885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.147916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172408.2414372689</v>
+        <v>200474.087216465</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.5217260650097</v>
+        <v>558.281570633631</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.4136158804746</v>
+        <v>763.8654745855582</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.1397549964722</v>
+        <v>690.9632257830386</v>
       </c>
       <c r="AD2" t="n">
-        <v>507521.7260650097</v>
+        <v>558281.570633631</v>
       </c>
       <c r="AE2" t="n">
-        <v>694413.6158804746</v>
+        <v>763865.4745855582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516342575156117e-06</v>
+        <v>3.668541338516764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.38125</v>
       </c>
       <c r="AH2" t="n">
-        <v>628139.7549964723</v>
+        <v>690963.2257830387</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.984338354074</v>
+        <v>257.7104767632427</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.4652532275091</v>
+        <v>352.6108436911269</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.2166395862507</v>
+        <v>318.9581596617785</v>
       </c>
       <c r="AD3" t="n">
-        <v>223984.338354074</v>
+        <v>257710.4767632427</v>
       </c>
       <c r="AE3" t="n">
-        <v>306465.2532275091</v>
+        <v>352610.843691127</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.154320814865466e-06</v>
+        <v>6.056527355719474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>277216.6395862506</v>
+        <v>318958.1596617785</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.7422053900038</v>
+        <v>216.553595145193</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.0359474316022</v>
+        <v>296.2981825478693</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.172867536459</v>
+        <v>268.0198998626991</v>
       </c>
       <c r="AD4" t="n">
-        <v>182742.2053900038</v>
+        <v>216553.595145193</v>
       </c>
       <c r="AE4" t="n">
-        <v>250035.9474316022</v>
+        <v>296298.1825478693</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.653401657260472e-06</v>
+        <v>6.784130472904047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.695833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>226172.867536459</v>
+        <v>268019.8998626991</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.4845473247885</v>
+        <v>184.8218439360886</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.2137936113321</v>
+        <v>252.8814006375314</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.387775414112</v>
+        <v>228.7467546820339</v>
       </c>
       <c r="AD5" t="n">
-        <v>159484.5473247885</v>
+        <v>184821.8439360886</v>
       </c>
       <c r="AE5" t="n">
-        <v>218213.7936113321</v>
+        <v>252881.4006375314</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.041658734532702e-06</v>
+        <v>7.350165142430913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>197387.775414112</v>
+        <v>228746.7546820339</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.4160557104529</v>
+        <v>183.753352321753</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.7518362460758</v>
+        <v>251.419443272275</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.0653452079252</v>
+        <v>227.4243244758471</v>
       </c>
       <c r="AD6" t="n">
-        <v>158416.0557104529</v>
+        <v>183753.352321753</v>
       </c>
       <c r="AE6" t="n">
-        <v>216751.8362460757</v>
+        <v>251419.443272275</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.052427035597263e-06</v>
+        <v>7.365864100907775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>196065.3452079252</v>
+        <v>227424.3244758471</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.3641792883367</v>
+        <v>167.1056272125114</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.9477301821104</v>
+        <v>228.641291332025</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0102625998788</v>
+        <v>206.8200873874302</v>
       </c>
       <c r="AD2" t="n">
-        <v>137364.1792883367</v>
+        <v>167105.6272125114</v>
       </c>
       <c r="AE2" t="n">
-        <v>187947.7301821104</v>
+        <v>228641.291332025</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959001805257342e-06</v>
+        <v>7.945485750031376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.518750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>170010.2625998788</v>
+        <v>206820.0873874302</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.7258515744562</v>
+        <v>370.9544467971503</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.1995036670134</v>
+        <v>507.556239463046</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.1874808609165</v>
+        <v>459.1157843283482</v>
       </c>
       <c r="AD2" t="n">
-        <v>321725.8515744562</v>
+        <v>370954.4467971503</v>
       </c>
       <c r="AE2" t="n">
-        <v>440199.5036670134</v>
+        <v>507556.239463046</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.246623384249589e-06</v>
+        <v>4.820726645744467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.977083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>398187.4808609165</v>
+        <v>459115.7843283482</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.9940748473672</v>
+        <v>199.8415852806867</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.4886604646916</v>
+        <v>273.4320733694228</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.6820233958564</v>
+        <v>247.3361000514504</v>
       </c>
       <c r="AD3" t="n">
-        <v>166994.0748473672</v>
+        <v>199841.5852806867</v>
       </c>
       <c r="AE3" t="n">
-        <v>228488.6604646916</v>
+        <v>273432.0733694228</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.8228217197926e-06</v>
+        <v>7.161134021602304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.716666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>206682.0233958564</v>
+        <v>247336.1000514504</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.465131395761</v>
+        <v>174.0795185156589</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.5047867118094</v>
+        <v>238.1832770793567</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.9871368923634</v>
+        <v>215.4513994073008</v>
       </c>
       <c r="AD4" t="n">
-        <v>149465.131395761</v>
+        <v>174079.5185156589</v>
       </c>
       <c r="AE4" t="n">
-        <v>204504.7867118094</v>
+        <v>238183.2770793567</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.140798004313213e-06</v>
+        <v>7.633278944521242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>184987.1368923634</v>
+        <v>215451.3994073008</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.2082568503017</v>
+        <v>173.8226439701995</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.153319626207</v>
+        <v>237.8318099937543</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.6692133321235</v>
+        <v>215.133475847061</v>
       </c>
       <c r="AD5" t="n">
-        <v>149208.2568503017</v>
+        <v>173822.6439701995</v>
       </c>
       <c r="AE5" t="n">
-        <v>204153.3196262069</v>
+        <v>237831.8099937543</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.158679311266695e-06</v>
+        <v>7.659829881506904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.279166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>184669.2133321235</v>
+        <v>215133.475847061</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.3464303181321</v>
+        <v>449.1390504349166</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.3493568174556</v>
+        <v>614.5318634215137</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.1567164475321</v>
+        <v>555.8818048774509</v>
       </c>
       <c r="AD2" t="n">
-        <v>407346.4303181322</v>
+        <v>449139.0504349166</v>
       </c>
       <c r="AE2" t="n">
-        <v>557349.3568174556</v>
+        <v>614531.8634215137</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870100080910977e-06</v>
+        <v>4.220317078360545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>504156.7164475321</v>
+        <v>555881.8048774509</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7404138339464</v>
+        <v>224.8160217074372</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.2936461326235</v>
+        <v>307.60319908286</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.2108841158474</v>
+        <v>278.2459814862842</v>
       </c>
       <c r="AD3" t="n">
-        <v>199740.4138339464</v>
+        <v>224816.0217074372</v>
       </c>
       <c r="AE3" t="n">
-        <v>273293.6461326235</v>
+        <v>307603.19908286</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.45452817377547e-06</v>
+        <v>6.550127451254525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>247210.8841158474</v>
+        <v>278245.9814862842</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.6565319543813</v>
+        <v>187.6467989733005</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.5538429196243</v>
+        <v>256.7466287476632</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.3136165077196</v>
+        <v>232.2430908462177</v>
       </c>
       <c r="AD4" t="n">
-        <v>162656.5319543813</v>
+        <v>187646.7989733005</v>
       </c>
       <c r="AE4" t="n">
-        <v>222553.8429196243</v>
+        <v>256746.6287476632</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.947376719969375e-06</v>
+        <v>7.27483288936145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.414583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>201313.6165077196</v>
+        <v>232243.0908462177</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.7027355856833</v>
+        <v>178.6930026046026</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.3028637143608</v>
+        <v>244.4956495423997</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.2318535634453</v>
+        <v>221.1613279019434</v>
       </c>
       <c r="AD5" t="n">
-        <v>153702.7355856833</v>
+        <v>178693.0026046025</v>
       </c>
       <c r="AE5" t="n">
-        <v>210302.8637143608</v>
+        <v>244495.6495423997</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.104448389560077e-06</v>
+        <v>7.505797744597381e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>190231.8535634453</v>
+        <v>221161.3279019434</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.3329058494596</v>
+        <v>704.8181858069498</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.6587548097425</v>
+        <v>964.3633362048957</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.5643052279372</v>
+        <v>872.3258528899429</v>
       </c>
       <c r="AD2" t="n">
-        <v>636332.9058494596</v>
+        <v>704818.1858069499</v>
       </c>
       <c r="AE2" t="n">
-        <v>870658.7548097426</v>
+        <v>964363.3362048957</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196201201642578e-06</v>
+        <v>3.17740351764209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>787564.3052279372</v>
+        <v>872325.8528899429</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.5454853835887</v>
+        <v>282.8734662169085</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.0708981546072</v>
+        <v>387.0399559745461</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.6150089273361</v>
+        <v>350.1014057903246</v>
       </c>
       <c r="AD3" t="n">
-        <v>248545.4853835887</v>
+        <v>282873.4662169085</v>
       </c>
       <c r="AE3" t="n">
-        <v>340070.8981546072</v>
+        <v>387039.9559745461</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.89478306171445e-06</v>
+        <v>5.634865053114723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.866666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>307615.0089273361</v>
+        <v>350101.4057903246</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.5441134420983</v>
+        <v>242.2901885756365</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.2852092633918</v>
+        <v>331.5121250977527</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.008164730284</v>
+        <v>299.8730731587116</v>
       </c>
       <c r="AD4" t="n">
-        <v>216544.1134420983</v>
+        <v>242290.1885756365</v>
       </c>
       <c r="AE4" t="n">
-        <v>296285.2092633918</v>
+        <v>331512.1250977527</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320788745086298e-06</v>
+        <v>6.251198363500336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.089583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>268008.164730284</v>
+        <v>299873.0731587117</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.4256999699589</v>
+        <v>202.0864342489256</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.3934260513492</v>
+        <v>276.5035747635125</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.3551762668797</v>
+        <v>250.1144616633685</v>
       </c>
       <c r="AD5" t="n">
-        <v>176425.699969959</v>
+        <v>202086.4342489256</v>
       </c>
       <c r="AE5" t="n">
-        <v>241393.4260513492</v>
+        <v>276503.5747635125</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.797968048690594e-06</v>
+        <v>6.941568260704794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.385416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>218355.1762668797</v>
+        <v>250114.4616633685</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.0773497347594</v>
+        <v>190.7380840137261</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.866112605679</v>
+        <v>260.9762613178422</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.309767823738</v>
+        <v>236.0690532202268</v>
       </c>
       <c r="AD6" t="n">
-        <v>165077.3497347594</v>
+        <v>190738.084013726</v>
       </c>
       <c r="AE6" t="n">
-        <v>225866.112605679</v>
+        <v>260976.2613178422</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.954429922044977e-06</v>
+        <v>7.167932997415286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>204309.767823738</v>
+        <v>236069.0532202268</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.2452559394</v>
+        <v>189.9059902183666</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.7276051654813</v>
+        <v>259.8377538776446</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.2799179357272</v>
+        <v>235.039203332216</v>
       </c>
       <c r="AD7" t="n">
-        <v>164245.2559394</v>
+        <v>189905.9902183666</v>
       </c>
       <c r="AE7" t="n">
-        <v>224727.6051654813</v>
+        <v>259837.7538776446</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.976193415707053e-06</v>
+        <v>7.199419821694564e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>203279.9179357272</v>
+        <v>235039.203332216</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.3450724717487</v>
+        <v>296.7387777831749</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.7426373021198</v>
+        <v>406.0110869538868</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.2682522684934</v>
+        <v>367.2619586551466</v>
       </c>
       <c r="AD2" t="n">
-        <v>256345.0724717487</v>
+        <v>296738.7777831749</v>
       </c>
       <c r="AE2" t="n">
-        <v>350742.6373021198</v>
+        <v>406011.0869538868</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.683643064344337e-06</v>
+        <v>5.531670113321936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.997916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>317268.2522684934</v>
+        <v>367261.9586551466</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.2859986187987</v>
+        <v>192.5838946970223</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.310374629332</v>
+        <v>263.5017809261472</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.3797002788154</v>
+        <v>238.3535407817049</v>
       </c>
       <c r="AD3" t="n">
-        <v>160285.9986187987</v>
+        <v>192583.8946970223</v>
       </c>
       <c r="AE3" t="n">
-        <v>219310.374629332</v>
+        <v>263501.7809261472</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.851336439092229e-06</v>
+        <v>7.285177288091231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.83125</v>
       </c>
       <c r="AH3" t="n">
-        <v>198379.7002788154</v>
+        <v>238353.5407817049</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.9912651952169</v>
+        <v>168.1934415487928</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.0152014862955</v>
+        <v>230.1296868979059</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.2123471690712</v>
+        <v>208.1664325694802</v>
       </c>
       <c r="AD4" t="n">
-        <v>143991.2651952169</v>
+        <v>168193.4415487928</v>
       </c>
       <c r="AE4" t="n">
-        <v>197015.2014862955</v>
+        <v>230129.6868979059</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.211507801548526e-06</v>
+        <v>7.826041081507808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.360416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178212.3471690712</v>
+        <v>208166.4325694802</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.9236788030105</v>
+        <v>212.3564467713318</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.5477591275483</v>
+        <v>290.5554589776373</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.9221484319491</v>
+        <v>262.825253770045</v>
       </c>
       <c r="AD2" t="n">
-        <v>180923.6788030105</v>
+        <v>212356.4467713318</v>
       </c>
       <c r="AE2" t="n">
-        <v>247547.7591275483</v>
+        <v>290555.4589776373</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458401201838685e-06</v>
+        <v>6.838058348530466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.743750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>223922.1484319491</v>
+        <v>262825.2537700451</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4782570660819</v>
+        <v>160.1381738968944</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.7355723134919</v>
+        <v>219.1081143232562</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.9137913769666</v>
+        <v>198.1967434124774</v>
       </c>
       <c r="AD3" t="n">
-        <v>136478.2570660819</v>
+        <v>160138.1738968944</v>
       </c>
       <c r="AE3" t="n">
-        <v>186735.5723134919</v>
+        <v>219108.1143232562</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.247205458482758e-06</v>
+        <v>8.047884312662379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.579166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>168913.7913769666</v>
+        <v>198196.7434124774</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4187948298248</v>
+        <v>166.4236646086497</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.2319222767563</v>
+        <v>227.7082000113551</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.5038230279509</v>
+        <v>205.9760489928029</v>
       </c>
       <c r="AD2" t="n">
-        <v>143418.7948298248</v>
+        <v>166423.6646086497</v>
       </c>
       <c r="AE2" t="n">
-        <v>196231.9222767563</v>
+        <v>227708.2000113551</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092000001530104e-06</v>
+        <v>7.956149560829373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.014583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>177503.8230279509</v>
+        <v>205976.0489928029</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1923817973582</v>
+        <v>163.7800813031518</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.2396928082405</v>
+        <v>224.0911327061102</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.8469923016884</v>
+        <v>202.7041895145836</v>
       </c>
       <c r="AD3" t="n">
-        <v>133192.3817973582</v>
+        <v>163780.0813031518</v>
       </c>
       <c r="AE3" t="n">
-        <v>182239.6928082405</v>
+        <v>224091.1327061102</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172912471255468e-06</v>
+        <v>8.082573698747211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.904166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>164846.9923016884</v>
+        <v>202704.1895145836</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.9349276654338</v>
+        <v>174.0167009560717</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3063621094956</v>
+        <v>238.0973273230145</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.3802812345488</v>
+        <v>215.3736525750726</v>
       </c>
       <c r="AD2" t="n">
-        <v>144934.9276654338</v>
+        <v>174016.7009560717</v>
       </c>
       <c r="AE2" t="n">
-        <v>198306.3621094956</v>
+        <v>238097.3273230145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.689011202039566e-06</v>
+        <v>7.641569643781908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>179380.2812345488</v>
+        <v>215373.6525750726</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.7480799570617</v>
+        <v>403.1488068071471</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.9596821961968</v>
+        <v>551.6059831436464</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.7214248076681</v>
+        <v>498.9614822962757</v>
       </c>
       <c r="AD2" t="n">
-        <v>361748.0799570617</v>
+        <v>403148.8068071472</v>
       </c>
       <c r="AE2" t="n">
-        <v>494959.6821961968</v>
+        <v>551605.9831436464</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.057545501805506e-06</v>
+        <v>4.517159034073716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>447721.4248076681</v>
+        <v>498961.4822962757</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.128754534599</v>
+        <v>211.2321962369117</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7236204401533</v>
+        <v>289.0172097980113</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.4629801736654</v>
+        <v>261.4338129331759</v>
       </c>
       <c r="AD3" t="n">
-        <v>178128.754534599</v>
+        <v>211232.1962369117</v>
       </c>
       <c r="AE3" t="n">
-        <v>243723.6204401533</v>
+        <v>289017.2097980113</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.646865993383637e-06</v>
+        <v>6.865190620956481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.897916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220462.9801736654</v>
+        <v>261433.8129331759</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.1074298735983</v>
+        <v>178.913765445241</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.8565842929377</v>
+        <v>244.7977070003303</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.7327278271547</v>
+        <v>221.4345574200294</v>
       </c>
       <c r="AD4" t="n">
-        <v>154107.4298735983</v>
+        <v>178913.765445241</v>
       </c>
       <c r="AE4" t="n">
-        <v>210856.5842929377</v>
+        <v>244797.7070003303</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.079086078662268e-06</v>
+        <v>7.503744278382532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>190732.7278271547</v>
+        <v>221434.5574200294</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.2378357644395</v>
+        <v>176.0441713360821</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.9302790352313</v>
+        <v>240.8714017426238</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.1811436326385</v>
+        <v>217.8829732255131</v>
       </c>
       <c r="AD5" t="n">
-        <v>151237.8357644395</v>
+        <v>176044.1713360821</v>
       </c>
       <c r="AE5" t="n">
-        <v>206930.2790352313</v>
+        <v>240871.4017426238</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.138172056856286e-06</v>
+        <v>7.591036768397343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.239583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>187181.1436326384</v>
+        <v>217882.9732255131</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.5101108815467</v>
+        <v>623.6840974343374</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.3335910716497</v>
+        <v>853.3520971101289</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.5733325553707</v>
+        <v>771.9093706491278</v>
       </c>
       <c r="AD2" t="n">
-        <v>572510.1108815466</v>
+        <v>623684.0974343375</v>
       </c>
       <c r="AE2" t="n">
-        <v>783333.5910716497</v>
+        <v>853352.0971101288</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351177217258583e-06</v>
+        <v>3.414306705155292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>708573.3325553708</v>
+        <v>771909.3706491279</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.7989007902487</v>
+        <v>269.9148321530782</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.6304587743838</v>
+        <v>369.3093811538268</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.8390606037453</v>
+        <v>334.0630121454766</v>
       </c>
       <c r="AD3" t="n">
-        <v>235798.9007902487</v>
+        <v>269914.8321530782</v>
       </c>
       <c r="AE3" t="n">
-        <v>322630.4587743838</v>
+        <v>369309.3811538268</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024150197162007e-06</v>
+        <v>5.843746230555251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.677083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>291839.0606037453</v>
+        <v>334063.0121454766</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.668626975042</v>
+        <v>227.6992174832965</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.9859594839436</v>
+        <v>311.5481147410092</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.6960714210034</v>
+        <v>281.8143999307449</v>
       </c>
       <c r="AD4" t="n">
-        <v>193668.626975042</v>
+        <v>227699.2174832965</v>
       </c>
       <c r="AE4" t="n">
-        <v>264985.9594839436</v>
+        <v>311548.1147410092</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.502036567296611e-06</v>
+        <v>6.537718010256047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.860416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>239696.0714210034</v>
+        <v>281814.3999307448</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.2419770400837</v>
+        <v>192.7436742161828</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.8278511814391</v>
+        <v>263.7203983132372</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.9888422266547</v>
+        <v>238.5512936322026</v>
       </c>
       <c r="AD5" t="n">
-        <v>167241.9770400837</v>
+        <v>192743.6742161828</v>
       </c>
       <c r="AE5" t="n">
-        <v>228827.8511814392</v>
+        <v>263720.3983132372</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.924913367676346e-06</v>
+        <v>7.151806597195751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.272916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206988.8422266547</v>
+        <v>238551.2936322026</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.458652762369</v>
+        <v>186.960349938468</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.9148517624137</v>
+        <v>255.8073988942118</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.8310483662141</v>
+        <v>231.393499771762</v>
       </c>
       <c r="AD6" t="n">
-        <v>161458.652762369</v>
+        <v>186960.349938468</v>
       </c>
       <c r="AE6" t="n">
-        <v>220914.8517624137</v>
+        <v>255807.3988942118</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.008391501832655e-06</v>
+        <v>7.273030957100047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.16875</v>
       </c>
       <c r="AH6" t="n">
-        <v>199831.0483662141</v>
+        <v>231393.499771762</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.0156526598135</v>
+        <v>187.5173498359125</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.6769635951981</v>
+        <v>256.5695107269962</v>
       </c>
       <c r="AC7" t="n">
-        <v>200.5204253153085</v>
+        <v>232.0828767208564</v>
       </c>
       <c r="AD7" t="n">
-        <v>162015.6526598135</v>
+        <v>187517.3498359125</v>
       </c>
       <c r="AE7" t="n">
-        <v>221676.9635951981</v>
+        <v>256569.5107269962</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.006612216557565e-06</v>
+        <v>7.270447134153597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.170833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>200520.4253153085</v>
+        <v>232082.8767208564</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.718746986996</v>
+        <v>191.297066838301</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.0612594537813</v>
+        <v>261.7410862790072</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.7269918849291</v>
+        <v>236.7608843605369</v>
       </c>
       <c r="AD2" t="n">
-        <v>155718.746986996</v>
+        <v>191297.066838301</v>
       </c>
       <c r="AE2" t="n">
-        <v>213061.2594537813</v>
+        <v>261741.0862790071</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.134923101392309e-06</v>
+        <v>6.892670455264687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>192726.9918849291</v>
+        <v>236760.8843605369</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.8226707470271</v>
+        <v>241.5075833042696</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.0886348388764</v>
+        <v>330.4413300393613</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.6892984613681</v>
+        <v>298.9044732778224</v>
       </c>
       <c r="AD2" t="n">
-        <v>209822.6707470271</v>
+        <v>241507.5833042696</v>
       </c>
       <c r="AE2" t="n">
-        <v>287088.6348388764</v>
+        <v>330441.3300393613</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.175737770720129e-06</v>
+        <v>6.355082963832969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.147916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259689.2984613681</v>
+        <v>298904.4732778224</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4549772467727</v>
+        <v>163.3679410287916</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8084521883372</v>
+        <v>223.5272242003854</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5979613128807</v>
+        <v>202.1940996451944</v>
       </c>
       <c r="AD3" t="n">
-        <v>139454.9772467727</v>
+        <v>163367.9410287917</v>
       </c>
       <c r="AE3" t="n">
-        <v>190808.4521883372</v>
+        <v>223527.2242003854</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.220039637825648e-06</v>
+        <v>7.944412890457342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172597.9613128807</v>
+        <v>202194.0996451944</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.5895307033733</v>
+        <v>163.3319022848</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.9925541637376</v>
+        <v>223.4779144009389</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.7644928541377</v>
+        <v>202.1494959038003</v>
       </c>
       <c r="AD4" t="n">
-        <v>139589.5307033733</v>
+        <v>163331.9022848</v>
       </c>
       <c r="AE4" t="n">
-        <v>190992.5541637376</v>
+        <v>223477.9144009389</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.234573315100454e-06</v>
+        <v>7.966531790139839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>172764.4928541377</v>
+        <v>202149.4959038003</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.0183612619189</v>
+        <v>332.6788748264826</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.5524048194249</v>
+        <v>455.1859132937184</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.4196840787804</v>
+        <v>411.7436085864068</v>
       </c>
       <c r="AD2" t="n">
-        <v>292018.3612619188</v>
+        <v>332678.8748264826</v>
       </c>
       <c r="AE2" t="n">
-        <v>399552.4048194249</v>
+        <v>455185.9132937184</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454967771697483e-06</v>
+        <v>5.157958333866294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.481249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>361419.6840787804</v>
+        <v>411743.6085864068</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.1000023351988</v>
+        <v>193.6795460927515</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.4241304254195</v>
+        <v>265.0008995025112</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.3871607848908</v>
+        <v>239.7095855851673</v>
       </c>
       <c r="AD3" t="n">
-        <v>161100.0023351988</v>
+        <v>193679.5460927515</v>
       </c>
       <c r="AE3" t="n">
-        <v>220424.1304254195</v>
+        <v>265000.8995025112</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.896227820077497e-06</v>
+        <v>7.30963087295855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.689583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>199387.1607848908</v>
+        <v>239709.5855851673</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.3188759706041</v>
+        <v>170.7322880836768</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.1999412361187</v>
+        <v>233.6034487329364</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.0931398269826</v>
+        <v>211.308663450432</v>
       </c>
       <c r="AD4" t="n">
-        <v>146318.8759706041</v>
+        <v>170732.2880836768</v>
       </c>
       <c r="AE4" t="n">
-        <v>200199.9412361187</v>
+        <v>233603.4487329364</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.182844714175542e-06</v>
+        <v>7.737524299244705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.320833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181093.1398269826</v>
+        <v>211308.663450432</v>
       </c>
     </row>
   </sheetData>
